--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -636,8 +636,10 @@
 Blåmossa
 Dropptaggsvamp
 Grovticka
+Rödgul trumpetsvamp
 Skarp dropptaggsvamp
 Smal svampklubba
+Svart trolldruva
 Trådticka
 Fläcknycklar
 Blåsippa</t>
@@ -682,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1182,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1275,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1361,7 +1363,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1449,7 +1451,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1537,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1628,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1717,7 +1719,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1805,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,7 +1890,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1975,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2060,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2145,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2233,7 +2235,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2323,7 +2325,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2380,7 +2382,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2439,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,7 +2496,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,7 +2553,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2608,7 +2610,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2665,7 +2667,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2722,7 +2724,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2779,7 +2781,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2836,7 +2838,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2950,7 +2952,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3007,7 +3009,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3066,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3121,7 +3123,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3178,7 +3180,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3235,7 +3237,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3292,7 +3294,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3351,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3406,7 +3408,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3463,7 +3465,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3520,7 +3522,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3577,7 +3579,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3641,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3701,7 +3703,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3758,7 +3760,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3822,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3882,7 +3884,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3946,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4006,7 +4008,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4063,7 +4065,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4120,7 +4122,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4177,7 +4179,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4234,7 +4236,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4291,7 +4293,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4348,7 +4350,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4405,7 +4407,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4462,7 +4464,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4519,7 +4521,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4576,7 +4578,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4633,7 +4635,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4697,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4754,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4811,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4868,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4925,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4980,7 +4982,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5037,7 +5039,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5094,7 +5096,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5151,7 +5153,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5213,7 +5215,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5275,7 +5277,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5332,7 +5334,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5389,7 +5391,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5446,7 +5448,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5503,7 +5505,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5565,7 +5567,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5622,7 +5624,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5679,7 +5681,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5736,7 +5738,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5800,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5857,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5914,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5971,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6028,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6085,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6142,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6199,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6256,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6313,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6370,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6427,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6484,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6541,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6598,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6655,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6712,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6769,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6826,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6886,7 +6888,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6950,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7012,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7074,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7134,7 +7136,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7193,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7250,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7307,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7364,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7419,7 +7421,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7476,7 +7478,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7533,7 +7535,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7590,7 +7592,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7654,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7711,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7766,7 +7768,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7825,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7887,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7944,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8006,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8068,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8123,7 +8125,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8180,7 +8182,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8237,7 +8239,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8296,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8351,7 +8353,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8408,7 +8410,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8467,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8524,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8581,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8643,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8703,7 +8705,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8765,7 +8767,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8829,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8889,7 +8891,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8951,7 +8953,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9013,7 +9015,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9075,7 +9077,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9137,7 +9139,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9199,7 +9201,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9263,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9325,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9385,7 +9387,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9447,7 +9449,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -646,31 +646,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 4056-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 4056-2022.xlsx", "A 4056-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 4056-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 4056-2022.png", "A 4056-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/knärot/A 4056-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/knärot/A 4056-2022.png", "A 4056-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 4056-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 4056-2022.docx", "A 4056-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 4056-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 4056-2022.docx", "A 4056-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 4056-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 4056-2022.docx", "A 4056-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 4056-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 4056-2022.docx", "A 4056-2022")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,27 +760,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 56546-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 56546-2019.xlsx", "A 56546-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 56546-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 56546-2019.png", "A 56546-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 56546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 56546-2019.docx", "A 56546-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 56546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 56546-2019.docx", "A 56546-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 56546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 56546-2019.docx", "A 56546-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 56546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 56546-2019.docx", "A 56546-2019")</f>
         <v/>
       </c>
     </row>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,27 +864,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 21557-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 21557-2020.xlsx", "A 21557-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 21557-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 21557-2020.png", "A 21557-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 21557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 21557-2020.docx", "A 21557-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 21557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 21557-2020.docx", "A 21557-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 21557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 21557-2020.docx", "A 21557-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 21557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 21557-2020.docx", "A 21557-2020")</f>
         <v/>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,27 +965,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22387-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22387-2020.xlsx", "A 22387-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22387-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22387-2020.png", "A 22387-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22387-2020.docx", "A 22387-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22387-2020.docx", "A 22387-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22387-2020.docx", "A 22387-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22387-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22387-2020.docx", "A 22387-2020")</f>
         <v/>
       </c>
     </row>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,27 +1057,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 7444-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 7444-2023.xlsx", "A 7444-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 7444-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 7444-2023.png", "A 7444-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 7444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 7444-2023.docx", "A 7444-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 7444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 7444-2023.docx", "A 7444-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 7444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 7444-2023.docx", "A 7444-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 7444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 7444-2023.docx", "A 7444-2023")</f>
         <v/>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,27 +1148,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 1030-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 1030-2021.xlsx", "A 1030-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 1030-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 1030-2021.png", "A 1030-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 1030-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 1030-2021.docx", "A 1030-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 1030-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 1030-2021.docx", "A 1030-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 1030-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 1030-2021.docx", "A 1030-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 1030-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 1030-2021.docx", "A 1030-2021")</f>
         <v/>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,27 +1241,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 15448-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 15448-2019.xlsx", "A 15448-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 15448-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 15448-2019.png", "A 15448-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 15448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 15448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 15448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 15448-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,27 +1329,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36645-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36645-2019.xlsx", "A 36645-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36645-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36645-2019.png", "A 36645-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,27 +1417,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22258-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22258-2022.xlsx", "A 22258-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22258-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22258-2022.png", "A 22258-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,27 +1503,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 20778-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 20778-2020.xlsx", "A 20778-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 20778-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 20778-2020.png", "A 20778-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 20778-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 20778-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 20778-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 20778-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,27 +1594,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 24031-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 24031-2020.xlsx", "A 24031-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 24031-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 24031-2020.png", "A 24031-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 24031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 24031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 24031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 24031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,27 +1685,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10011-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10011-2023.xlsx", "A 10011-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10011-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10011-2023.png", "A 10011-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10011-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10011-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10011-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10011-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,27 +1771,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18814-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18814-2023.xlsx", "A 18814-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18814-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18814-2023.png", "A 18814-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18814-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18814-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18814-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18814-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1856,27 +1856,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18172-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18172-2019.xlsx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18172-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18172-2019.png", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1941,27 +1941,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36637-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36637-2019.xlsx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36637-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36637-2019.png", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2026,27 +2026,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 16973-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 16973-2021.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 16973-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 16973-2021.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 16973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 16973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 16973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 16973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2111,27 +2111,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22467-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22467-2022.xlsx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22467-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22467-2022.png", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,27 +2201,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10973-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10973-2023.xlsx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10973-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10973-2023.png", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10973-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10973-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10973-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10973-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,27 +2291,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 33770-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 33770-2023.xlsx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 33770-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 33770-2023.png", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 33770-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 33770-2023.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 33770-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 33770-2023.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 33770-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 33770-2023.docx", "A 33770-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 33770-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 33770-2023.docx", "A 33770-2023")</f>
         <v/>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y143"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="R142" s="2" t="inlineStr"/>
     </row>
-    <row r="143">
+    <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
           <t>A 40024-2023</t>
@@ -9449,7 +9449,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9495,6 +9495,68 @@
         <v>0</v>
       </c>
       <c r="R143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>A 43908-2023</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>43542</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43671</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44712</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>43949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43971</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44985</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44295</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>44713</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43437</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43455</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43483</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43493</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43496</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43500</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43528</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43542</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43549</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43559</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43565</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43591</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43626</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43661</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43756</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43769</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43800</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43809</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43849</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43902</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43983</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44020</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44083</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44096</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44182</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44313</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44318</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>44368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>44376</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>44497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44503</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>44518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>44545</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44547</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44552</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44613</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44673</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44685</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44735</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44757</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44791</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44847</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44959</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44987</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44993</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>45016</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45034</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45075</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45076</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45097</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45112</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45121</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45162</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45167</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45187</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,14 +1175,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 15448-2019</t>
+          <t>A 44867-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43542</v>
+        <v>45190</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,26 +1194,21 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -1224,15 +1219,110 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Granticka
+Kandelabersvamp
+Granbräken
+Myskmadra
+Stor aspticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 44867-2023.xlsx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 44867-2023.png", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 44867-2023.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 44867-2023.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 44867-2023.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 44867-2023.docx", "A 44867-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 15448-2019</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43542</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Kortskaftad ärgspik
 Mörk husmossa
@@ -1240,87 +1330,87 @@
 Vanlig rörsvepemossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 15448-2019.xlsx", "A 15448-2019")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 15448-2019.png", "A 15448-2019")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 15448-2019.docx", "A 15448-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 36645-2019</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43671</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>5.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Gulskölding
@@ -1328,87 +1418,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36645-2019.xlsx", "A 36645-2019")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36645-2019.png", "A 36645-2019")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36645-2019.docx", "A 36645-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 22258-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44712</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Kamjordstjärna
@@ -1416,481 +1506,396 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22258-2022.xlsx", "A 22258-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22258-2022.png", "A 22258-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22258-2022.docx", "A 22258-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 20778-2020</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43949</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.9</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Gultoppig fingersvamp
 Trådticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 20778-2020.xlsx", "A 20778-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 20778-2020.png", "A 20778-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 20778-2020.docx", "A 20778-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 24031-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43971</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>2.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 24031-2020.xlsx", "A 24031-2020")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 24031-2020.png", "A 24031-2020")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 24031-2020.docx", "A 24031-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 10011-2023</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44985</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>3.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10011-2023.xlsx", "A 10011-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10011-2023.png", "A 10011-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10011-2023.docx", "A 10011-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 18814-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45043</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>8.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Barkticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18814-2023.xlsx", "A 18814-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18814-2023.png", "A 18814-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18814-2023.docx", "A 18814-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18814-2023.docx", "A 18814-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 18172-2019</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>43558</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18172-2019.xlsx", "A 18172-2019")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18172-2019.png", "A 18172-2019")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18172-2019.docx", "A 18172-2019")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18172-2019.docx", "A 18172-2019")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18172-2019.docx", "A 18172-2019")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 36637-2019</t>
+          <t>A 18172-2019</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43671</v>
+        <v>43558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,7 +1908,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1912,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1927,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1937,45 +1942,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36637-2019.xlsx", "A 36637-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 18172-2019.xlsx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36637-2019.png", "A 36637-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 18172-2019.png", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36637-2019.docx", "A 36637-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36637-2019.docx", "A 36637-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36637-2019.docx", "A 36637-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36637-2019.docx", "A 36637-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 18172-2019.docx", "A 18172-2019")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16973-2021</t>
+          <t>A 36637-2019</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44295</v>
+        <v>43671</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,16 +1993,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2012,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2022,45 +2027,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 16973-2021.xlsx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 36637-2019.xlsx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 16973-2021.png", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 36637-2019.png", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 16973-2021.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 16973-2021.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 16973-2021.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 16973-2021.docx", "A 16973-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 36637-2019.docx", "A 36637-2019")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22467-2022</t>
+          <t>A 16973-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44713</v>
+        <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,17 +2078,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2097,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2107,45 +2112,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22467-2022.xlsx", "A 22467-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 16973-2021.xlsx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22467-2022.png", "A 22467-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 16973-2021.png", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22467-2022.docx", "A 22467-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22467-2022.docx", "A 22467-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22467-2022.docx", "A 22467-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22467-2022.docx", "A 22467-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 16973-2021.docx", "A 16973-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10973-2023</t>
+          <t>A 22467-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44991</v>
+        <v>44713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2157,13 +2162,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2197,45 +2197,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10973-2023.xlsx", "A 10973-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 22467-2022.xlsx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10973-2023.png", "A 10973-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 22467-2022.png", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10973-2023.docx", "A 10973-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10973-2023.docx", "A 10973-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10973-2023.docx", "A 10973-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10973-2023.docx", "A 10973-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 22467-2022.docx", "A 22467-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33770-2023</t>
+          <t>A 10973-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45133</v>
+        <v>44991</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2287,45 +2287,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 33770-2023.xlsx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 10973-2023.xlsx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 33770-2023.png", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 10973-2023.png", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 33770-2023.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 33770-2023.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 33770-2023.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 33770-2023.docx", "A 33770-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 10973-2023.docx", "A 10973-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38364-2018</t>
+          <t>A 33770-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43339</v>
+        <v>45133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,17 +2337,22 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2362,27 +2367,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Slaguggla</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/artfynd/A 33770-2023.xlsx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/kartor/A 33770-2023.png", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomål/A 33770-2023.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/klagomålsmail/A 33770-2023.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsyn/A 33770-2023.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KNIVSTA/tillsynsmail/A 33770-2023.docx", "A 33770-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53288-2018</t>
+          <t>A 38364-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43376</v>
+        <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,7 +2428,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2432,14 +2465,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53295-2018</t>
+          <t>A 53288-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2452,7 +2485,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2489,14 +2522,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 56639-2018</t>
+          <t>A 53295-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43402</v>
+        <v>43376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2509,7 +2542,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2546,14 +2579,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56646-2018</t>
+          <t>A 56639-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2566,7 +2599,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2603,14 +2636,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60550-2018</t>
+          <t>A 56646-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43408</v>
+        <v>43402</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2623,7 +2656,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2660,14 +2693,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 66632-2018</t>
+          <t>A 60550-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43437</v>
+        <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2680,7 +2713,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2717,14 +2750,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 72192-2018</t>
+          <t>A 66632-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43455</v>
+        <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2737,7 +2770,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2774,14 +2807,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 72204-2018</t>
+          <t>A 72192-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2794,7 +2827,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2831,14 +2864,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2231-2019</t>
+          <t>A 72204-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43475</v>
+        <v>43455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2884,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2888,14 +2921,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2992-2019</t>
+          <t>A 2231-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43479</v>
+        <v>43475</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2908,7 +2941,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2945,14 +2978,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3737-2019</t>
+          <t>A 2992-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43481</v>
+        <v>43479</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2965,7 +2998,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3002,14 +3035,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3619-2019</t>
+          <t>A 3737-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3022,7 +3055,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3059,14 +3092,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6053-2019</t>
+          <t>A 3619-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43483</v>
+        <v>43481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3079,7 +3112,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3116,14 +3149,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 4379-2019</t>
+          <t>A 6053-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3136,7 +3169,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3173,14 +3206,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 4781-2019</t>
+          <t>A 4379-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43486</v>
+        <v>43483</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3193,7 +3226,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3230,14 +3263,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6160-2019</t>
+          <t>A 4781-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43493</v>
+        <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3250,7 +3283,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3287,14 +3320,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7306-2019</t>
+          <t>A 6160-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43496</v>
+        <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3307,7 +3340,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3344,14 +3377,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7304-2019</t>
+          <t>A 7306-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3364,7 +3397,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3401,14 +3434,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7768-2019</t>
+          <t>A 7304-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43500</v>
+        <v>43496</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3421,7 +3454,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3458,14 +3491,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7804-2019</t>
+          <t>A 7768-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3478,7 +3511,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3515,14 +3548,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13109-2019</t>
+          <t>A 7804-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43528</v>
+        <v>43500</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3535,7 +3568,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3572,14 +3605,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14070-2019</t>
+          <t>A 13109-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43532</v>
+        <v>43528</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3591,13 +3624,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3634,14 +3662,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14115-2019</t>
+          <t>A 14070-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3687,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3696,14 +3724,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14635-2019</t>
+          <t>A 14115-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43538</v>
+        <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3715,8 +3743,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3753,14 +3786,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15468-2019</t>
+          <t>A 14635-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43542</v>
+        <v>43538</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3772,13 +3805,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3815,14 +3843,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16736-2019</t>
+          <t>A 15468-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43549</v>
+        <v>43542</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3840,7 +3868,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3877,14 +3905,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18503-2019</t>
+          <t>A 16736-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43559</v>
+        <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3930,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3939,14 +3967,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 18506-2019</t>
+          <t>A 18503-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3964,7 +3992,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4001,14 +4029,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19512-2019</t>
+          <t>A 18506-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43565</v>
+        <v>43559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4020,8 +4048,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4058,14 +4091,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23051-2019</t>
+          <t>A 19512-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43591</v>
+        <v>43565</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4078,7 +4111,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4115,14 +4148,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28551-2019</t>
+          <t>A 23051-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43626</v>
+        <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4135,7 +4168,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4172,14 +4205,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35059-2019</t>
+          <t>A 28551-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43661</v>
+        <v>43626</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4192,7 +4225,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>11.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4229,14 +4262,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49082-2019</t>
+          <t>A 35059-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43731</v>
+        <v>43661</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4249,7 +4282,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4286,14 +4319,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 55170-2019</t>
+          <t>A 49082-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43756</v>
+        <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4339,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4343,14 +4376,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58146-2019</t>
+          <t>A 55170-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43769</v>
+        <v>43756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4396,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4400,14 +4433,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 65903-2019</t>
+          <t>A 58146-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43800</v>
+        <v>43769</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4420,7 +4453,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4457,14 +4490,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 66607-2019</t>
+          <t>A 65903-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43809</v>
+        <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4477,7 +4510,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4514,14 +4547,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 67166-2019</t>
+          <t>A 66607-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43811</v>
+        <v>43809</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4534,7 +4567,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4571,14 +4604,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 67165-2019</t>
+          <t>A 67166-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4591,7 +4624,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4628,14 +4661,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 67598-2019</t>
+          <t>A 67165-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43815</v>
+        <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,13 +4680,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4690,14 +4718,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2663-2020</t>
+          <t>A 67598-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43849</v>
+        <v>43815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,8 +4737,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4747,14 +4780,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4567-2020</t>
+          <t>A 2663-2020</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43858</v>
+        <v>43849</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4767,7 +4800,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4804,14 +4837,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13547-2020</t>
+          <t>A 4567-2020</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43902</v>
+        <v>43858</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4824,7 +4857,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4861,14 +4894,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14005-2020</t>
+          <t>A 13547-2020</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4881,7 +4914,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4918,14 +4951,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13996-2020</t>
+          <t>A 14005-2020</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4938,7 +4971,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4975,14 +5008,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20395-2020</t>
+          <t>A 13996-2020</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43945</v>
+        <v>43906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +5028,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5032,14 +5065,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25658-2020</t>
+          <t>A 20395-2020</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43983</v>
+        <v>43945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5052,7 +5085,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>15.2</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5089,14 +5122,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32953-2020</t>
+          <t>A 25658-2020</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44020</v>
+        <v>43983</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5109,7 +5142,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5146,14 +5179,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44089-2020</t>
+          <t>A 32953-2020</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44083</v>
+        <v>44020</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,13 +5198,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5208,14 +5236,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46988-2020</t>
+          <t>A 44089-2020</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44096</v>
+        <v>44083</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5233,7 +5261,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5270,14 +5298,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57286-2020</t>
+          <t>A 46988-2020</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44139</v>
+        <v>44096</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5289,8 +5317,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5327,14 +5360,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57559-2020</t>
+          <t>A 57286-2020</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5347,7 +5380,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5384,14 +5417,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 68257-2020</t>
+          <t>A 57559-2020</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44182</v>
+        <v>44140</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5404,7 +5437,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5441,14 +5474,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9725-2021</t>
+          <t>A 68257-2020</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44252</v>
+        <v>44182</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5494,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5498,14 +5531,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12864-2021</t>
+          <t>A 9725-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5517,13 +5550,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5560,14 +5588,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20505-2021</t>
+          <t>A 12864-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44313</v>
+        <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5579,8 +5607,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5617,14 +5650,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19796-2021</t>
+          <t>A 20505-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5637,7 +5670,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>14.6</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5674,14 +5707,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20827-2021</t>
+          <t>A 19796-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44318</v>
+        <v>44313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5694,7 +5727,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>14.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5731,14 +5764,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25359-2021</t>
+          <t>A 20827-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44342</v>
+        <v>44318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5750,13 +5783,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5793,14 +5821,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31143-2021</t>
+          <t>A 25359-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44368</v>
+        <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,8 +5840,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>13.1</v>
+        <v>4.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5850,14 +5883,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32975-2021</t>
+          <t>A 31143-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44376</v>
+        <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5870,7 +5903,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.1</v>
+        <v>13.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5907,14 +5940,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35232-2021</t>
+          <t>A 32975-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44384</v>
+        <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5927,7 +5960,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5964,14 +5997,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47652-2021</t>
+          <t>A 35232-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44448</v>
+        <v>44384</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5984,7 +6017,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6021,14 +6054,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47654-2021</t>
+          <t>A 47652-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6041,7 +6074,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6078,14 +6111,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54155-2021</t>
+          <t>A 47654-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44470</v>
+        <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6098,7 +6131,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6135,14 +6168,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60885-2021</t>
+          <t>A 54155-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44497</v>
+        <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6155,7 +6188,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6192,14 +6225,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62441-2021</t>
+          <t>A 60885-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44503</v>
+        <v>44497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6212,7 +6245,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6249,14 +6282,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62451-2021</t>
+          <t>A 62441-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44509</v>
+        <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6269,7 +6302,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6306,14 +6339,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64044-2021</t>
+          <t>A 62451-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6326,7 +6359,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6363,14 +6396,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 66298-2021</t>
+          <t>A 64044-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44518</v>
+        <v>44510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6383,7 +6416,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6420,14 +6453,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 66336-2021</t>
+          <t>A 66298-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6440,7 +6473,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6477,14 +6510,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 66256-2021</t>
+          <t>A 66336-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6497,7 +6530,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6534,14 +6567,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 66293-2021</t>
+          <t>A 66256-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6554,7 +6587,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6591,14 +6624,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 66310-2021</t>
+          <t>A 66293-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6611,7 +6644,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>14.1</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6648,14 +6681,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 66330-2021</t>
+          <t>A 66310-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6668,7 +6701,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>14.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6705,14 +6738,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 66284-2021</t>
+          <t>A 66330-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6725,7 +6758,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6762,14 +6795,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 66305-2021</t>
+          <t>A 66284-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6782,7 +6815,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6819,14 +6852,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 72471-2021</t>
+          <t>A 66305-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44545</v>
+        <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6838,13 +6871,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6881,14 +6909,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 72885-2021</t>
+          <t>A 72471-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44547</v>
+        <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6906,7 +6934,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6943,14 +6971,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 72883-2021</t>
+          <t>A 72885-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6968,7 +6996,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7005,14 +7033,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 73754-2021</t>
+          <t>A 72883-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44552</v>
+        <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7030,7 +7058,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7067,14 +7095,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1323-2022</t>
+          <t>A 73754-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44572</v>
+        <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7092,7 +7120,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>8.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7129,14 +7157,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8576-2022</t>
+          <t>A 1323-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44613</v>
+        <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7148,8 +7176,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7186,14 +7219,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16773-2022</t>
+          <t>A 8576-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44673</v>
+        <v>44613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7206,7 +7239,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7243,14 +7276,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16775-2022</t>
+          <t>A 16773-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7263,7 +7296,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7300,14 +7333,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18258-2022</t>
+          <t>A 16775-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44685</v>
+        <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7320,7 +7353,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7357,14 +7390,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24132-2022</t>
+          <t>A 18258-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44725</v>
+        <v>44685</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7377,7 +7410,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7414,14 +7447,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26182-2022</t>
+          <t>A 24132-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44735</v>
+        <v>44725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7434,7 +7467,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7471,14 +7504,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30351-2022</t>
+          <t>A 26182-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44757</v>
+        <v>44735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7491,7 +7524,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7528,14 +7561,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31875-2022</t>
+          <t>A 30351-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44777</v>
+        <v>44757</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7548,7 +7581,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7585,14 +7618,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34078-2022</t>
+          <t>A 31875-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44791</v>
+        <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7604,13 +7637,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7647,14 +7675,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45916-2022</t>
+          <t>A 34078-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44846</v>
+        <v>44791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7666,8 +7694,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7704,14 +7737,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46149-2022</t>
+          <t>A 45916-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44847</v>
+        <v>44846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7724,7 +7757,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7761,14 +7794,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5402-2023</t>
+          <t>A 46149-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44959</v>
+        <v>44847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7781,7 +7814,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7818,14 +7851,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7507-2023</t>
+          <t>A 5402-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44971</v>
+        <v>44959</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7837,13 +7870,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7880,14 +7908,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 11191-2023</t>
+          <t>A 7507-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44987</v>
+        <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7899,8 +7927,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7937,14 +7970,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10914-2023</t>
+          <t>A 11191-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44991</v>
+        <v>44987</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,13 +7989,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7999,14 +8027,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10898-2023</t>
+          <t>A 10914-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8061,14 +8089,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 11450-2023</t>
+          <t>A 10898-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,8 +8108,13 @@
           <t>KNIVSTA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8118,14 +8151,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11452-2023</t>
+          <t>A 11450-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8138,7 +8171,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8175,14 +8208,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 15441-2023</t>
+          <t>A 11452-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45016</v>
+        <v>44993</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8195,7 +8228,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8232,14 +8265,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17094-2023</t>
+          <t>A 15441-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45034</v>
+        <v>45016</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8252,7 +8285,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8289,14 +8322,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17101-2023</t>
+          <t>A 17094-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8309,7 +8342,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8346,14 +8379,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23239-2023</t>
+          <t>A 17101-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45075</v>
+        <v>45034</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8366,7 +8399,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8403,14 +8436,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 23042-2023</t>
+          <t>A 23239-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8423,7 +8456,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8460,14 +8493,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 23466-2023</t>
+          <t>A 23042-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45076</v>
+        <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8480,7 +8513,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8517,14 +8550,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 29220-2023</t>
+          <t>A 23466-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45097</v>
+        <v>45076</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8537,7 +8570,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>21.3</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8574,14 +8607,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 30128-2023</t>
+          <t>A 29220-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45110</v>
+        <v>45097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8593,13 +8626,8 @@
           <t>KNIVSTA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>21.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8636,14 +8664,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30111-2023</t>
+          <t>A 30128-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8661,7 +8689,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8698,14 +8726,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30178-2023</t>
+          <t>A 30111-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8723,7 +8751,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8760,14 +8788,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 30167-2023</t>
+          <t>A 30178-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8785,7 +8813,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8822,14 +8850,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 30693-2023</t>
+          <t>A 30167-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45112</v>
+        <v>45110</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8847,7 +8875,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8884,14 +8912,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30719-2023</t>
+          <t>A 30693-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8909,7 +8937,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8946,14 +8974,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 30627-2023</t>
+          <t>A 30719-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8999,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9008,14 +9036,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30764-2023</t>
+          <t>A 30627-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9033,7 +9061,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9070,14 +9098,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32654-2023</t>
+          <t>A 30764-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45121</v>
+        <v>45112</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,7 +9123,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9132,14 +9160,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32663-2023</t>
+          <t>A 32654-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9157,7 +9185,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9194,14 +9222,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32658-2023</t>
+          <t>A 32663-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9219,7 +9247,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9256,14 +9284,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33776-2023</t>
+          <t>A 32658-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45133</v>
+        <v>45121</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9281,7 +9309,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9318,14 +9346,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 33777-2023</t>
+          <t>A 33776-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9343,7 +9371,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9380,14 +9408,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 38584-2023</t>
+          <t>A 33777-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45162</v>
+        <v>45133</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9405,7 +9433,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9442,121 +9470,183 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
+          <t>A 38584-2023</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>45162</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>A 40024-2023</t>
         </is>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B144" s="1" t="n">
         <v>45167</v>
       </c>
-      <c r="C143" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
+      <c r="C144" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
         <v>5.3</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" s="2" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>A 43908-2023</t>
         </is>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B145" s="1" t="n">
         <v>45187</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>KNIVSTA</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
+      <c r="C145" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G144" t="n">
+      <c r="G145" t="n">
         <v>1.7</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y145"/>
+  <dimension ref="A1:Y146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43542</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43671</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44991</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43402</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43475</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43479</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43483</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>43496</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43500</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43528</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43538</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43542</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>43559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43565</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43626</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43661</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43769</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43809</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43849</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>43858</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>43906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43983</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44020</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44083</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44096</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44140</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44182</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44384</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44685</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44757</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>44791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44959</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44987</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44991</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44993</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45016</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45034</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45076</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45110</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45112</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45121</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45133</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45167</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="R144" s="2" t="inlineStr"/>
     </row>
-    <row r="145">
+    <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
           <t>A 43908-2023</t>
@@ -9596,7 +9596,7 @@
         <v>45187</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9647,6 +9647,63 @@
         <v>0</v>
       </c>
       <c r="R145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>A 46160-2023</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>KNIVSTA</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43542</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43671</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44991</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43402</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43475</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43479</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43483</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>43496</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43500</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43528</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43538</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43542</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>43559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43565</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43626</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43661</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43769</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43809</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43849</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>43858</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>43906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43983</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44020</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44083</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44096</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44140</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44182</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44384</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44685</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44757</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>44791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44959</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44987</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44991</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44993</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45016</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45034</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45076</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45110</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45112</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45121</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45133</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45167</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>45187</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45196</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43542</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43671</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44991</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43402</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43475</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43479</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43483</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>43496</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43500</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43528</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43538</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43542</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>43559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43565</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43626</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43661</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43769</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43809</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43849</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>43858</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>43906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43983</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44020</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44083</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44096</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44140</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44182</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44384</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44685</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44757</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>44791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44959</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44987</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44991</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44993</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45016</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45034</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45076</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45110</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45112</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45121</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45133</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45167</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>45187</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45196</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43542</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43671</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44991</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43402</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43475</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43479</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43483</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>43496</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43500</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43528</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43538</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43542</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>43559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43565</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43626</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43661</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43769</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43809</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43849</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>43858</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>43906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43983</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44020</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44083</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44096</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44140</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44182</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44384</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44685</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44757</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>44791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44959</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44987</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44991</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44993</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45016</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45034</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45076</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45110</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45112</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45121</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45133</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45167</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>45187</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45196</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Översikt KNIVSTA.xlsx
+++ b/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>44588</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>43956</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43962</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>43542</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43671</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43949</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43971</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43558</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43671</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44295</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44991</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43376</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43402</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43402</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43437</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>43455</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>43475</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43479</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43483</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43493</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43496</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>43496</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43500</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43528</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43538</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43542</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43549</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43559</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>43559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>43565</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>43626</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>43661</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>43756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>43769</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43800</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43809</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43811</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>43811</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43849</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>43858</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43902</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>43906</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>43906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43983</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44020</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44083</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44096</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44140</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44182</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44313</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44313</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44342</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44384</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44547</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>44673</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44685</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>44735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44757</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>44777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>44791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>44847</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>44959</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44987</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44991</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>44991</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>44993</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45016</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45034</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45034</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45075</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45075</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45076</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45097</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45110</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45110</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45110</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45110</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45112</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45112</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45112</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45121</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45121</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45121</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45133</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45133</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45162</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45167</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>45187</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45196</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
